--- a/6_Testing_Documentation_(Test Scenario-Test-Case-dll)/Praktikum/pertemuan 6.xlsx
+++ b/6_Testing_Documentation_(Test Scenario-Test-Case-dll)/Praktikum/pertemuan 6.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Baru\Kuliah\Quality Engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Baru\Kuliah\Quality Engineer\qe_Bayu-Septyan-Nur-Hidayat\6_Testing_Documentation_(Test Scenario-Test-Case-dll)\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C0713-3AEE-4AB3-A28F-28F73E561AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5BA869-D60E-4F52-8513-CE4AD23B1D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1800" windowWidth="12450" windowHeight="8235" xr2:uid="{36E891E3-73D9-424A-8190-39388E7B6B43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{36E891E3-73D9-424A-8190-39388E7B6B43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Login Case" sheetId="5" r:id="rId1"/>
+    <sheet name="Daftar Case" sheetId="6" r:id="rId2"/>
+    <sheet name="Buy Product Case" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
-  <si>
-    <t>Test Scenario dan Test Case pada Sepulsa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>Test Scenario :</t>
   </si>
@@ -147,6 +146,48 @@
   </si>
   <si>
     <t>Checking "Ketentuan layanan dan Kebijakan Privasi" Functionality</t>
+  </si>
+  <si>
+    <t>Test Scenario dan Test Case pada Menu Login</t>
+  </si>
+  <si>
+    <t>Test Scenario dan Test Case pada Menu Daftar</t>
+  </si>
+  <si>
+    <t>Test Scenario dan Test Case pada Menu Buy Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case : </t>
+  </si>
+  <si>
+    <t>Checking Input "Nomor HP (No.HP)" Functionality</t>
+  </si>
+  <si>
+    <t>Checking Input "Token Listik" Functionality</t>
+  </si>
+  <si>
+    <t>Checking Input "Tagihan Listrik" Functionality</t>
+  </si>
+  <si>
+    <t>Checking Input "Paket Data" Functionality</t>
+  </si>
+  <si>
+    <t>Checking Input "Tagihan Telkom" Functionality</t>
+  </si>
+  <si>
+    <t>No.Meter PLN</t>
+  </si>
+  <si>
+    <t>No.Meter PLN dan No.HP</t>
+  </si>
+  <si>
+    <t>No. HP</t>
+  </si>
+  <si>
+    <t>No. Meter PLN</t>
+  </si>
+  <si>
+    <t>No.ID Pelanggan</t>
   </si>
 </sst>
 </file>
@@ -194,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -221,17 +262,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -247,8 +301,83 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -258,7 +387,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -273,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -281,56 +423,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,392 +879,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825CC7BA-6AB5-4488-83E4-3A093FD93FE4}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="23.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15"/>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="17"/>
-    </row>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="8">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306877FF-CA9D-4D69-B107-644A2E93CBDB}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="41"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B9A79E-1CD7-483D-BA2C-B468AEAF59E1}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="41"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>